--- a/docs/電腦繪圖高中職組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖高中職組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖高中職組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>序</t>
   </si>
@@ -48,217 +48,124 @@
     <t>電腦繪圖高中職組靜態類</t>
   </si>
   <si>
-    <t>大里區大明高中</t>
-  </si>
-  <si>
-    <t>林杏儒</t>
-  </si>
-  <si>
-    <t>洪敬惠</t>
-  </si>
-  <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>r4t2</t>
-  </si>
-  <si>
-    <t>sm91hp1</t>
-  </si>
-  <si>
-    <t>蔡紫軒</t>
-  </si>
-  <si>
-    <t>rs96tv7</t>
-  </si>
-  <si>
-    <t>dxb32s9</t>
-  </si>
-  <si>
-    <t>王薏婷</t>
-  </si>
-  <si>
-    <t>my30d8</t>
-  </si>
-  <si>
-    <t>v36m6</t>
-  </si>
-  <si>
     <t>大里區立人高中</t>
   </si>
   <si>
-    <t>粘晴茹</t>
+    <t>許靜如</t>
   </si>
   <si>
     <t>黃月君</t>
   </si>
   <si>
-    <t>frs88e8</t>
-  </si>
-  <si>
-    <t>tv4k7</t>
-  </si>
-  <si>
-    <t>龔芷玉</t>
-  </si>
-  <si>
-    <t>dx71c9</t>
-  </si>
-  <si>
-    <t>s59yg7</t>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>ygw95s4</t>
+  </si>
+  <si>
+    <t>dx51h9</t>
+  </si>
+  <si>
+    <t>陳冠樺</t>
+  </si>
+  <si>
+    <t>t35t2</t>
+  </si>
+  <si>
+    <t>bjk14yg1</t>
   </si>
   <si>
     <t>黃翎喬</t>
   </si>
   <si>
-    <t>k67xb1</t>
-  </si>
-  <si>
-    <t>ncd84jk5</t>
-  </si>
-  <si>
-    <t>大雅區國立中科實中</t>
-  </si>
-  <si>
-    <t>詹湘翎</t>
-  </si>
-  <si>
-    <t>陳雅琪</t>
-  </si>
-  <si>
-    <t>bj47e6</t>
-  </si>
-  <si>
-    <t>y80pe3</t>
-  </si>
-  <si>
-    <t>林庭儀</t>
-  </si>
-  <si>
-    <t>e95m6</t>
-  </si>
-  <si>
-    <t>v56f7</t>
-  </si>
-  <si>
-    <t>卓均而</t>
-  </si>
-  <si>
-    <t>hp52a5</t>
-  </si>
-  <si>
-    <t>hpe34hp6</t>
-  </si>
-  <si>
-    <t>太平區光華高工</t>
-  </si>
-  <si>
-    <t>陳慧君</t>
-  </si>
-  <si>
-    <t>洪紹恆</t>
-  </si>
-  <si>
-    <t>Krita 3.3.3</t>
-  </si>
-  <si>
-    <t>pe88v1</t>
-  </si>
-  <si>
-    <t>ncd88cd2</t>
+    <t>fr18fr4</t>
+  </si>
+  <si>
+    <t>rsm3pe8</t>
   </si>
   <si>
     <t>太平區長億高中</t>
   </si>
   <si>
-    <t>陳逸潔</t>
+    <t>林芝宇</t>
   </si>
   <si>
     <t>鄭瑞娟</t>
   </si>
   <si>
-    <t>Gimp 2.8</t>
-  </si>
-  <si>
-    <t>s9kf2</t>
-  </si>
-  <si>
-    <t>v13c7</t>
-  </si>
-  <si>
-    <t>趙耞鈞</t>
-  </si>
-  <si>
-    <t>nc65rs3</t>
-  </si>
-  <si>
-    <t>p91s5</t>
+    <t>s71an7</t>
+  </si>
+  <si>
+    <t>c13c8</t>
+  </si>
+  <si>
+    <t>徐若穎</t>
+  </si>
+  <si>
+    <t>frs42fr6</t>
+  </si>
+  <si>
+    <t>n60k2</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>林姵綺</t>
+    <t>曾翊甯</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>cd16sm4</t>
-  </si>
-  <si>
-    <t>x28tv4</t>
-  </si>
-  <si>
-    <t>賴睿淇</t>
-  </si>
-  <si>
-    <t>gw90r3</t>
-  </si>
-  <si>
-    <t>yg64jk8</t>
-  </si>
-  <si>
-    <t>林芷筠</t>
-  </si>
-  <si>
-    <t>dx96c8</t>
-  </si>
-  <si>
-    <t>nc54my7</t>
+    <t>yg59y2</t>
+  </si>
+  <si>
+    <t>d23g3</t>
+  </si>
+  <si>
+    <t>莊雅筑</t>
+  </si>
+  <si>
+    <t>x39a8</t>
+  </si>
+  <si>
+    <t>pe92w1</t>
+  </si>
+  <si>
+    <t>劉芸嘉</t>
+  </si>
+  <si>
+    <t>bj11hp1</t>
+  </si>
+  <si>
+    <t>kf74et2</t>
   </si>
   <si>
     <t>林品妤</t>
   </si>
   <si>
-    <t>h37k7</t>
-  </si>
-  <si>
-    <t>nc42h6</t>
-  </si>
-  <si>
-    <t>西屯區西苑高中</t>
-  </si>
-  <si>
-    <t>王湘如</t>
-  </si>
-  <si>
-    <t>陳永錚</t>
-  </si>
-  <si>
-    <t>cd57g6</t>
-  </si>
-  <si>
-    <t>v78tv8</t>
-  </si>
-  <si>
-    <t>施昱如</t>
-  </si>
-  <si>
-    <t>etv25an5</t>
-  </si>
-  <si>
-    <t>rsm53g2</t>
+    <t>dx55j3</t>
+  </si>
+  <si>
+    <t>pe83nc7</t>
+  </si>
+  <si>
+    <t>后里區后綜高中</t>
+  </si>
+  <si>
+    <t>王筱榕</t>
+  </si>
+  <si>
+    <t>唐慧玲</t>
+  </si>
+  <si>
+    <t>Windows 小畫家</t>
+  </si>
+  <si>
+    <t>pe89c6</t>
+  </si>
+  <si>
+    <t>yg89my7</t>
   </si>
   <si>
     <t>西區忠明高中</t>
@@ -270,136 +177,112 @@
     <t>張淑姿</t>
   </si>
   <si>
-    <t>kf24hp4</t>
-  </si>
-  <si>
-    <t>cd55pe8</t>
-  </si>
-  <si>
-    <t>郝家琪</t>
-  </si>
-  <si>
-    <t>jkf76b7</t>
-  </si>
-  <si>
-    <t>sm62s1</t>
-  </si>
-  <si>
-    <t>廖于淨</t>
-  </si>
-  <si>
-    <t>nc99et4</t>
-  </si>
-  <si>
-    <t>rsm49et4</t>
+    <t>yg61g9</t>
+  </si>
+  <si>
+    <t>rsm76fr5</t>
   </si>
   <si>
     <t>西區臺中女中</t>
   </si>
   <si>
-    <t>陳翔鈺</t>
-  </si>
-  <si>
-    <t>劉淑貞</t>
-  </si>
-  <si>
-    <t>pe68jk8</t>
-  </si>
-  <si>
-    <t>smy25d3</t>
-  </si>
-  <si>
-    <t>黃仟沄</t>
+    <t>林佩萱</t>
   </si>
   <si>
     <t>曾鈴惠</t>
   </si>
   <si>
-    <t>fr20f5</t>
-  </si>
-  <si>
-    <t>gwh90yg7</t>
-  </si>
-  <si>
-    <t>東區臺中家商</t>
-  </si>
-  <si>
-    <t>詹雲涵</t>
-  </si>
-  <si>
-    <t>何篤生老師</t>
-  </si>
-  <si>
-    <t>cd74rs7</t>
-  </si>
-  <si>
-    <t>b33j8</t>
+    <t>w66n2</t>
+  </si>
+  <si>
+    <t>an27s5</t>
+  </si>
+  <si>
+    <t>辛宇凡</t>
+  </si>
+  <si>
+    <t>g8dx2</t>
+  </si>
+  <si>
+    <t>jk33s5</t>
   </si>
   <si>
     <t>南屯區惠文高中</t>
   </si>
   <si>
-    <t>汪松毅</t>
+    <t>賴韋臻</t>
   </si>
   <si>
     <t>林慧香</t>
   </si>
   <si>
-    <t>fr89wh1</t>
-  </si>
-  <si>
-    <t>k26bj4</t>
-  </si>
-  <si>
-    <t>李云珮</t>
-  </si>
-  <si>
-    <t>ncd25kf4</t>
-  </si>
-  <si>
-    <t>cd71t3</t>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>smy57m2</t>
+  </si>
+  <si>
+    <t>jk35wh7</t>
+  </si>
+  <si>
+    <t>李加鈞</t>
+  </si>
+  <si>
+    <t>s67e1</t>
+  </si>
+  <si>
+    <t>kf76d7</t>
+  </si>
+  <si>
+    <t>劉郁嫻</t>
+  </si>
+  <si>
+    <t>pe82y8</t>
+  </si>
+  <si>
+    <t>my99c5</t>
   </si>
   <si>
     <t>南屯區嶺東中學</t>
   </si>
   <si>
-    <t>賴倖節</t>
-  </si>
-  <si>
-    <t>林行行</t>
-  </si>
-  <si>
-    <t>an45b3</t>
-  </si>
-  <si>
-    <t>my61v6</t>
-  </si>
-  <si>
-    <t>陳秋灧</t>
+    <t>陸子欣</t>
   </si>
   <si>
     <t>張多茂</t>
   </si>
   <si>
-    <t>wh46my5</t>
-  </si>
-  <si>
-    <t>w60et6</t>
-  </si>
-  <si>
-    <t>新社區新社高中</t>
-  </si>
-  <si>
-    <t>盧羿宏</t>
-  </si>
-  <si>
-    <t>顏永山</t>
-  </si>
-  <si>
-    <t>tv97cd5</t>
-  </si>
-  <si>
-    <t>sm21yg6</t>
+    <t>v93t2</t>
+  </si>
+  <si>
+    <t>g46g4</t>
+  </si>
+  <si>
+    <t>盧亭妤</t>
+  </si>
+  <si>
+    <t>王詩婷</t>
+  </si>
+  <si>
+    <t>gw14sm5</t>
+  </si>
+  <si>
+    <t>hp98p5</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>林佳蓉</t>
+  </si>
+  <si>
+    <t>張政豐</t>
+  </si>
+  <si>
+    <t>an66f7</t>
+  </si>
+  <si>
+    <t>pe43r3</t>
   </si>
   <si>
     <t>龍井區龍津高中</t>
@@ -411,10 +294,10 @@
     <t>邱燕君</t>
   </si>
   <si>
-    <t>kf22xb7</t>
-  </si>
-  <si>
-    <t>my13fr8</t>
+    <t>pet23s8</t>
+  </si>
+  <si>
+    <t>tv49tv2</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,12 +1299,12 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1588,22 +1471,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1614,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1640,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>12</v>
@@ -1666,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
@@ -1727,13 +1610,13 @@
         <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1744,22 +1627,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1770,22 +1653,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1796,22 +1679,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1822,22 +1705,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1848,22 +1731,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1874,22 +1757,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1900,22 +1783,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1926,22 +1809,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1952,282 +1835,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
